--- a/static/templates/modelo_importacao_laari.xlsx
+++ b/static/templates/modelo_importacao_laari.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,141 +443,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>codigo</t>
+          <t>nome_artefato</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>codigo_artefato</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>tipo_artefato</t>
+          <t>data_descoberta</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>tipo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>periodo</t>
+          <t>local_origem</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cultura</t>
+          <t>localizacao_arqueologica</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>localizacao</t>
+          <t>profundidade</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>descricao</t>
+          <t>nivel_estratigrafico</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>coordenadas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>estado_conservacao</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>dimensoes</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>data_catalogacao</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>responsavel</t>
+          <t>observacoes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ART-001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Vaso Cerâmico</t>
-        </is>
-      </c>
+          <t>Vaso Cerâmico Tupi</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>vaso</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>cerâmica</t>
+          <t>vaso cerâmico</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Pré-colonial</t>
+          <t>Sítio Arqueológico Exemplo, SP</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Tupi-Guarani</t>
+          <t>Setor A, Quadra 5</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Sítio Exemplo, SP</t>
+          <t>1.20m</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Vaso de borda reforçada com decoração pintada</t>
+          <t>Nível 3</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>fragmentado</t>
+          <t>-23.5505, -46.6333</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>15cm x 12cm x 10cm</t>
+          <t>bom</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Dr. João Silva</t>
+          <t>Fragmento de borda com decoração pintada</t>
         </is>
       </c>
     </row>

--- a/static/templates/modelo_importacao_laari.xlsx
+++ b/static/templates/modelo_importacao_laari.xlsx
@@ -62,13 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,17 +440,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -510,59 +507,6 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>observacoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Vaso Cerâmico Tupi</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>vaso cerâmico</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Sítio Arqueológico Exemplo, SP</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Setor A, Quadra 5</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>1.20m</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Nível 3</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>-23.5505, -46.6333</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Fragmento de borda com decoração pintada</t>
         </is>
       </c>
     </row>
